--- a/new-stats/clube-do-remo.xlsx
+++ b/new-stats/clube-do-remo.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/02/2026</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
